--- a/resources/UnknownStations.xlsx
+++ b/resources/UnknownStations.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D235AB08-2B11-4660-8E4D-FBECA71B6B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="AirQualityData" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="UnknownStations" state="visible" r:id="rId5"/>
+    <sheet name="AirQualityData" sheetId="1" r:id="rId1"/>
+    <sheet name="UnknownStations" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -1876,14 +1880,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2246,11 +2250,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N151"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2294,7 +2305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>14148</v>
       </c>
@@ -2314,7 +2325,7 @@
         <v>4.5</v>
       </c>
       <c r="G2">
-        <v>30.175</v>
+        <v>30.175000000000001</v>
       </c>
       <c r="H2">
         <v>6.7</v>
@@ -2338,7 +2349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11303</v>
       </c>
@@ -2376,13 +2387,13 @@
         <v>162</v>
       </c>
       <c r="M3">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="N3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9069</v>
       </c>
@@ -2426,7 +2437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>13802</v>
       </c>
@@ -2470,7 +2481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>13729</v>
       </c>
@@ -2514,7 +2525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>13816</v>
       </c>
@@ -2531,7 +2542,7 @@
         <v>34</v>
       </c>
       <c r="F7">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G7">
         <v>82</v>
@@ -2558,7 +2569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>13874</v>
       </c>
@@ -2581,7 +2592,7 @@
         <v>85</v>
       </c>
       <c r="H8">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I8">
         <v>5.5</v>
@@ -2602,7 +2613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14700</v>
       </c>
@@ -2628,7 +2639,7 @@
         <v>3.9</v>
       </c>
       <c r="I9">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="J9">
         <v>1019</v>
@@ -2646,7 +2657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14137</v>
       </c>
@@ -2690,7 +2701,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>13819</v>
       </c>
@@ -2734,7 +2745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>13815</v>
       </c>
@@ -2778,7 +2789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13743</v>
       </c>
@@ -2822,7 +2833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13814</v>
       </c>
@@ -2848,7 +2859,7 @@
         <v>1.6</v>
       </c>
       <c r="I14">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J14" t="s">
         <v>28</v>
@@ -2866,7 +2877,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13813</v>
       </c>
@@ -2910,7 +2921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13736</v>
       </c>
@@ -2954,7 +2965,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12818</v>
       </c>
@@ -2977,7 +2988,7 @@
         <v>99.14</v>
       </c>
       <c r="H17">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="I17">
         <v>0.8</v>
@@ -2998,7 +3009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13812</v>
       </c>
@@ -3024,7 +3035,7 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="J18" t="s">
         <v>28</v>
@@ -3042,7 +3053,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13811</v>
       </c>
@@ -3086,7 +3097,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>13716</v>
       </c>
@@ -3124,13 +3135,13 @@
         <v>204</v>
       </c>
       <c r="M20">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="N20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>13705</v>
       </c>
@@ -3174,7 +3185,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13704</v>
       </c>
@@ -3218,7 +3229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>13810</v>
       </c>
@@ -3262,7 +3273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>13801</v>
       </c>
@@ -3279,7 +3290,7 @@
         <v>89</v>
       </c>
       <c r="F24">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G24">
         <v>87</v>
@@ -3306,7 +3317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>14154</v>
       </c>
@@ -3329,7 +3340,7 @@
         <v>89</v>
       </c>
       <c r="H25">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I25">
         <v>4</v>
@@ -3350,7 +3361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>13879</v>
       </c>
@@ -3367,7 +3378,7 @@
         <v>95</v>
       </c>
       <c r="F26">
-        <v>79.4</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="G26">
         <v>91</v>
@@ -3394,7 +3405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>13741</v>
       </c>
@@ -3417,7 +3428,7 @@
         <v>67</v>
       </c>
       <c r="H27">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="I27">
         <v>2.4</v>
@@ -3438,7 +3449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>13875</v>
       </c>
@@ -3455,7 +3466,7 @@
         <v>101</v>
       </c>
       <c r="F28">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G28">
         <v>48.1</v>
@@ -3482,7 +3493,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>13742</v>
       </c>
@@ -3526,7 +3537,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>14698</v>
       </c>
@@ -3570,7 +3581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>8192</v>
       </c>
@@ -3590,7 +3601,7 @@
         <v>16.3</v>
       </c>
       <c r="G31">
-        <v>39.705</v>
+        <v>39.704999999999998</v>
       </c>
       <c r="H31">
         <v>63.2</v>
@@ -3614,7 +3625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>11843</v>
       </c>
@@ -3658,7 +3669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>13731</v>
       </c>
@@ -3696,13 +3707,13 @@
         <v>174</v>
       </c>
       <c r="M33">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>12448</v>
       </c>
@@ -3746,7 +3757,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>11852</v>
       </c>
@@ -3769,7 +3780,7 @@
         <v>59.32</v>
       </c>
       <c r="H35">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I35">
         <v>14.3</v>
@@ -3790,7 +3801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>12447</v>
       </c>
@@ -3834,7 +3845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>11849</v>
       </c>
@@ -3878,7 +3889,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>12922</v>
       </c>
@@ -3922,7 +3933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>12446</v>
       </c>
@@ -3945,7 +3956,7 @@
         <v>99.13</v>
       </c>
       <c r="H39">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="I39">
         <v>0.8</v>
@@ -3966,7 +3977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>11842</v>
       </c>
@@ -3992,7 +4003,7 @@
         <v>10.1</v>
       </c>
       <c r="I40">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J40" t="s">
         <v>28</v>
@@ -4010,7 +4021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>11855</v>
       </c>
@@ -4036,7 +4047,7 @@
         <v>3.1</v>
       </c>
       <c r="I41">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J41" t="s">
         <v>28</v>
@@ -4048,13 +4059,13 @@
         <v>193</v>
       </c>
       <c r="M41">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>11853</v>
       </c>
@@ -4092,13 +4103,13 @@
         <v>194</v>
       </c>
       <c r="M42">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="N42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>11858</v>
       </c>
@@ -4121,7 +4132,7 @@
         <v>100.13</v>
       </c>
       <c r="H43">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I43">
         <v>2.7</v>
@@ -4142,7 +4153,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>11857</v>
       </c>
@@ -4186,7 +4197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>11846</v>
       </c>
@@ -4206,7 +4217,7 @@
         <v>2.9</v>
       </c>
       <c r="G45">
-        <v>80.26</v>
+        <v>80.260000000000005</v>
       </c>
       <c r="H45">
         <v>17.5</v>
@@ -4230,7 +4241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>12449</v>
       </c>
@@ -4274,7 +4285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>11850</v>
       </c>
@@ -4318,7 +4329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>11861</v>
       </c>
@@ -4362,7 +4373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>11841</v>
       </c>
@@ -4406,7 +4417,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>14131</v>
       </c>
@@ -4450,7 +4461,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>13694</v>
       </c>
@@ -4494,7 +4505,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>12810</v>
       </c>
@@ -4538,7 +4549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>14699</v>
       </c>
@@ -4555,7 +4566,7 @@
         <v>179</v>
       </c>
       <c r="F53">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G53">
         <v>62.72</v>
@@ -4582,7 +4593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>11270</v>
       </c>
@@ -4626,7 +4637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>12811</v>
       </c>
@@ -4670,7 +4681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>13733</v>
       </c>
@@ -4690,7 +4701,7 @@
         <v>9.5</v>
       </c>
       <c r="G56">
-        <v>60.63999999999999</v>
+        <v>60.639999999999993</v>
       </c>
       <c r="H56">
         <v>4</v>
@@ -4708,13 +4719,13 @@
         <v>86</v>
       </c>
       <c r="M56">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="N56" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>13728</v>
       </c>
@@ -4731,13 +4742,13 @@
         <v>192</v>
       </c>
       <c r="F57">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G57">
         <v>69.66</v>
       </c>
       <c r="H57">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I57" t="s">
         <v>28</v>
@@ -4752,13 +4763,13 @@
         <v>89</v>
       </c>
       <c r="M57">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="N57" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>14130</v>
       </c>
@@ -4778,7 +4789,7 @@
         <v>6</v>
       </c>
       <c r="G58">
-        <v>78.54</v>
+        <v>78.540000000000006</v>
       </c>
       <c r="H58">
         <v>6.6</v>
@@ -4802,7 +4813,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>11294</v>
       </c>
@@ -4825,7 +4836,7 @@
         <v>35</v>
       </c>
       <c r="H59">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I59">
         <v>21.1</v>
@@ -4846,7 +4857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>13722</v>
       </c>
@@ -4872,7 +4883,7 @@
         <v>3.3</v>
       </c>
       <c r="I60">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="J60">
         <v>940.2</v>
@@ -4890,7 +4901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>13719</v>
       </c>
@@ -4907,7 +4918,7 @@
         <v>205</v>
       </c>
       <c r="F61">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G61">
         <v>61</v>
@@ -4934,7 +4945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>13718</v>
       </c>
@@ -4978,7 +4989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>13697</v>
       </c>
@@ -5022,7 +5033,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>13695</v>
       </c>
@@ -5045,7 +5056,7 @@
         <v>42.58</v>
       </c>
       <c r="H64">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I64">
         <v>6.9</v>
@@ -5066,7 +5077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>12827</v>
       </c>
@@ -5104,13 +5115,13 @@
         <v>64</v>
       </c>
       <c r="M65">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N65" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>12440</v>
       </c>
@@ -5133,7 +5144,7 @@
         <v>60</v>
       </c>
       <c r="H66">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I66">
         <v>7.5</v>
@@ -5154,7 +5165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>12819</v>
       </c>
@@ -5192,13 +5203,13 @@
         <v>87</v>
       </c>
       <c r="M67">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N67" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2084</v>
       </c>
@@ -5242,7 +5253,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>12891</v>
       </c>
@@ -5262,7 +5273,7 @@
         <v>4.7</v>
       </c>
       <c r="G69">
-        <v>65.51</v>
+        <v>65.510000000000005</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -5286,7 +5297,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>9585</v>
       </c>
@@ -5309,7 +5320,7 @@
         <v>68</v>
       </c>
       <c r="H70">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I70">
         <v>10.9</v>
@@ -5330,7 +5341,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>13693</v>
       </c>
@@ -5350,7 +5361,7 @@
         <v>10.8</v>
       </c>
       <c r="G71">
-        <v>70.79</v>
+        <v>70.790000000000006</v>
       </c>
       <c r="H71">
         <v>3.7</v>
@@ -5374,7 +5385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>12429</v>
       </c>
@@ -5418,7 +5429,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>11862</v>
       </c>
@@ -5435,7 +5446,7 @@
         <v>243</v>
       </c>
       <c r="F73">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G73">
         <v>86.8</v>
@@ -5462,7 +5473,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>11313</v>
       </c>
@@ -5485,7 +5496,7 @@
         <v>49</v>
       </c>
       <c r="H74">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I74">
         <v>12.8</v>
@@ -5506,7 +5517,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>12825</v>
       </c>
@@ -5550,7 +5561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>12427</v>
       </c>
@@ -5588,13 +5599,13 @@
         <v>286</v>
       </c>
       <c r="M76">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="N76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>11864</v>
       </c>
@@ -5638,7 +5649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>11275</v>
       </c>
@@ -5664,7 +5675,7 @@
         <v>29.1</v>
       </c>
       <c r="I78">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="J78">
         <v>1020.5</v>
@@ -5682,7 +5693,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>11306</v>
       </c>
@@ -5726,7 +5737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>11860</v>
       </c>
@@ -5770,7 +5781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>12821</v>
       </c>
@@ -5793,7 +5804,7 @@
         <v>41.1</v>
       </c>
       <c r="H81">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I81" t="s">
         <v>28</v>
@@ -5814,7 +5825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>11287</v>
       </c>
@@ -5858,7 +5869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>11286</v>
       </c>
@@ -5881,7 +5892,7 @@
         <v>62</v>
       </c>
       <c r="H83">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I83">
         <v>46</v>
@@ -5902,7 +5913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>14700</v>
       </c>
@@ -5928,7 +5939,7 @@
         <v>3.9</v>
       </c>
       <c r="I84">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="J84">
         <v>1019</v>
@@ -5946,7 +5957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>14700</v>
       </c>
@@ -5972,7 +5983,7 @@
         <v>3.9</v>
       </c>
       <c r="I85">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="J85">
         <v>1019</v>
@@ -5990,7 +6001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>14700</v>
       </c>
@@ -6016,7 +6027,7 @@
         <v>3.9</v>
       </c>
       <c r="I86">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="J86">
         <v>1019</v>
@@ -6034,7 +6045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>12462</v>
       </c>
@@ -6078,7 +6089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>9147</v>
       </c>
@@ -6116,13 +6127,13 @@
         <v>173</v>
       </c>
       <c r="M88">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="N88" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>12462</v>
       </c>
@@ -6166,7 +6177,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>12444</v>
       </c>
@@ -6210,7 +6221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>11283</v>
       </c>
@@ -6254,7 +6265,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>11898</v>
       </c>
@@ -6292,13 +6303,13 @@
         <v>70</v>
       </c>
       <c r="M92">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N92" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>3760</v>
       </c>
@@ -6342,7 +6353,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>8729</v>
       </c>
@@ -6365,7 +6376,7 @@
         <v>50.5</v>
       </c>
       <c r="H94">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="I94">
         <v>19.3</v>
@@ -6386,7 +6397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>13708</v>
       </c>
@@ -6409,7 +6420,7 @@
         <v>29</v>
       </c>
       <c r="H95">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I95">
         <v>3</v>
@@ -6430,7 +6441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>12462</v>
       </c>
@@ -6474,7 +6485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>12453</v>
       </c>
@@ -6497,7 +6508,7 @@
         <v>55.86</v>
       </c>
       <c r="H97">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I97">
         <v>14.4</v>
@@ -6518,7 +6529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>14128</v>
       </c>
@@ -6535,7 +6546,7 @@
         <v>306</v>
       </c>
       <c r="F98">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G98">
         <v>66.27</v>
@@ -6556,13 +6567,13 @@
         <v>132</v>
       </c>
       <c r="M98">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="N98" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>12809</v>
       </c>
@@ -6606,7 +6617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>13724</v>
       </c>
@@ -6632,7 +6643,7 @@
         <v>1.3</v>
       </c>
       <c r="I100">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J100">
         <v>852.39</v>
@@ -6650,7 +6661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>11427</v>
       </c>
@@ -6694,7 +6705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>11288</v>
       </c>
@@ -6738,7 +6749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>13698</v>
       </c>
@@ -6755,7 +6766,7 @@
         <v>321</v>
       </c>
       <c r="F103">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G103">
         <v>73</v>
@@ -6782,7 +6793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>11321</v>
       </c>
@@ -6820,13 +6831,13 @@
         <v>155</v>
       </c>
       <c r="M104">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="N104" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>11269</v>
       </c>
@@ -6870,7 +6881,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>11299</v>
       </c>
@@ -6893,7 +6904,7 @@
         <v>93.27</v>
       </c>
       <c r="H106">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I106">
         <v>11</v>
@@ -6914,7 +6925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>11309</v>
       </c>
@@ -6958,7 +6969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>11272</v>
       </c>
@@ -6981,7 +6992,7 @@
         <v>99.09</v>
       </c>
       <c r="H108">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I108">
         <v>7.7</v>
@@ -7002,7 +7013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>11282</v>
       </c>
@@ -7046,7 +7057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>11310</v>
       </c>
@@ -7090,7 +7101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>11311</v>
       </c>
@@ -7128,13 +7139,13 @@
         <v>131</v>
       </c>
       <c r="M111">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="N111" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>11866</v>
       </c>
@@ -7160,7 +7171,7 @@
         <v>14.9</v>
       </c>
       <c r="I112">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J112">
         <v>741.4</v>
@@ -7172,13 +7183,13 @@
         <v>168</v>
       </c>
       <c r="M112">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="N112" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>11848</v>
       </c>
@@ -7222,7 +7233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>11291</v>
       </c>
@@ -7242,10 +7253,10 @@
         <v>10</v>
       </c>
       <c r="G114">
-        <v>40.91</v>
+        <v>40.909999999999997</v>
       </c>
       <c r="H114">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="I114">
         <v>24</v>
@@ -7260,13 +7271,13 @@
         <v>189</v>
       </c>
       <c r="M114">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="N114" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>12433</v>
       </c>
@@ -7283,13 +7294,13 @@
         <v>357</v>
       </c>
       <c r="F115">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G115">
         <v>40.17</v>
       </c>
       <c r="H115">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="I115">
         <v>16.5</v>
@@ -7310,7 +7321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>11285</v>
       </c>
@@ -7354,7 +7365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>11289</v>
       </c>
@@ -7398,7 +7409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>11314</v>
       </c>
@@ -7421,10 +7432,10 @@
         <v>30.09</v>
       </c>
       <c r="H118">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="I118">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J118">
         <v>729.66</v>
@@ -7442,7 +7453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>14697</v>
       </c>
@@ -7468,7 +7479,7 @@
         <v>2.1</v>
       </c>
       <c r="I119">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J119">
         <v>623.04</v>
@@ -7486,7 +7497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>11847</v>
       </c>
@@ -7530,7 +7541,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>14152</v>
       </c>
@@ -7574,7 +7585,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>14147</v>
       </c>
@@ -7612,13 +7623,13 @@
         <v>753</v>
       </c>
       <c r="M122">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N122" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>14138</v>
       </c>
@@ -7638,13 +7649,13 @@
         <v>3.6</v>
       </c>
       <c r="G123">
-        <v>74.85</v>
+        <v>74.849999999999994</v>
       </c>
       <c r="H123">
         <v>0.1</v>
       </c>
       <c r="I123">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J123">
         <v>784.56</v>
@@ -7662,7 +7673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>14129</v>
       </c>
@@ -7679,7 +7690,7 @@
         <v>387</v>
       </c>
       <c r="F124">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G124">
         <v>54.5</v>
@@ -7700,13 +7711,13 @@
         <v>824</v>
       </c>
       <c r="M124">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N124" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>14142</v>
       </c>
@@ -7726,7 +7737,7 @@
         <v>6</v>
       </c>
       <c r="G125">
-        <v>39.73</v>
+        <v>39.729999999999997</v>
       </c>
       <c r="H125">
         <v>5</v>
@@ -7750,7 +7761,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>14139</v>
       </c>
@@ -7794,7 +7805,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>8186</v>
       </c>
@@ -7817,7 +7828,7 @@
         <v>87</v>
       </c>
       <c r="H127">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="I127">
         <v>16.5</v>
@@ -7838,7 +7849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>14141</v>
       </c>
@@ -7882,7 +7893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>14132</v>
       </c>
@@ -7926,7 +7937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>11302</v>
       </c>
@@ -7970,7 +7981,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>14151</v>
       </c>
@@ -8014,7 +8025,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>11899</v>
       </c>
@@ -8058,7 +8069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>13730</v>
       </c>
@@ -8075,10 +8086,10 @@
         <v>416</v>
       </c>
       <c r="F133">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G133">
-        <v>81.82</v>
+        <v>81.819999999999993</v>
       </c>
       <c r="H133">
         <v>0.8</v>
@@ -8102,7 +8113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>11278</v>
       </c>
@@ -8128,7 +8139,7 @@
         <v>16.2</v>
       </c>
       <c r="I134">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J134">
         <v>742</v>
@@ -8146,7 +8157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>11318</v>
       </c>
@@ -8184,13 +8195,13 @@
         <v>180</v>
       </c>
       <c r="M135">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="N135" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>13877</v>
       </c>
@@ -8216,7 +8227,7 @@
         <v>9.4</v>
       </c>
       <c r="I136">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J136">
         <v>740.98</v>
@@ -8234,7 +8245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>13727</v>
       </c>
@@ -8278,7 +8289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>14153</v>
       </c>
@@ -8304,7 +8315,7 @@
         <v>8.6</v>
       </c>
       <c r="I138">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J138">
         <v>748.37</v>
@@ -8322,7 +8333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>13721</v>
       </c>
@@ -8339,13 +8350,13 @@
         <v>434</v>
       </c>
       <c r="F139">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G139">
         <v>92.92</v>
       </c>
       <c r="H139">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I139">
         <v>1.9</v>
@@ -8366,7 +8377,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>12430</v>
       </c>
@@ -8410,7 +8421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>13805</v>
       </c>
@@ -8448,13 +8459,13 @@
         <v>161</v>
       </c>
       <c r="M141">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="N141" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>11277</v>
       </c>
@@ -8477,7 +8488,7 @@
         <v>82</v>
       </c>
       <c r="H142">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I142">
         <v>5.2</v>
@@ -8498,7 +8509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>11863</v>
       </c>
@@ -8542,7 +8553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>13690</v>
       </c>
@@ -8562,7 +8573,7 @@
         <v>14.8</v>
       </c>
       <c r="G144">
-        <v>78.26</v>
+        <v>78.260000000000005</v>
       </c>
       <c r="H144">
         <v>9.5</v>
@@ -8586,7 +8597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>13689</v>
       </c>
@@ -8630,7 +8641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>14698</v>
       </c>
@@ -8674,7 +8685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>11271</v>
       </c>
@@ -8700,7 +8711,7 @@
         <v>24.2</v>
       </c>
       <c r="I147">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J147">
         <v>1018.4</v>
@@ -8718,7 +8729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>9148</v>
       </c>
@@ -8741,7 +8752,7 @@
         <v>66.22</v>
       </c>
       <c r="H148">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I148">
         <v>2.9</v>
@@ -8762,7 +8773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>8683</v>
       </c>
@@ -8806,7 +8817,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>9068</v>
       </c>
@@ -8823,16 +8834,16 @@
         <v>465</v>
       </c>
       <c r="F150">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="G150">
-        <v>79.43</v>
+        <v>79.430000000000007</v>
       </c>
       <c r="H150">
         <v>0.4</v>
       </c>
       <c r="I150">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J150">
         <v>1013</v>
@@ -8850,7 +8861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>11290</v>
       </c>
@@ -8870,7 +8881,7 @@
         <v>26.1</v>
       </c>
       <c r="G151">
-        <v>78.76</v>
+        <v>78.760000000000005</v>
       </c>
       <c r="H151">
         <v>52.6</v>
@@ -8896,587 +8907,590 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A114"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>581</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>